--- a/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_en.xlsx
+++ b/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB85381F-A429-9E45-A702-0D1E725D94D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69056E78-1794-9F4D-BEA4-56EBFBD8461F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,16 +400,12 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_en.xlsx
+++ b/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/positionImportSchema_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krna/Projects/mes/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69056E78-1794-9F4D-BEA4-56EBFBD8461F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61CED2A-0D78-E74E-87F1-C60E3338207F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,10 @@
     <t>Storage location</t>
   </si>
   <si>
-    <t>Type of pallet</t>
-  </si>
-  <si>
-    <t>Pallet number</t>
+    <t>Type of load unit</t>
+  </si>
+  <si>
+    <t>Load unit number</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
